--- a/SQLScripter.Demo/Recursos/Demo_alter.xlsx
+++ b/SQLScripter.Demo/Recursos/Demo_alter.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>REALAIS_CITID</t>
   </si>
   <si>
-    <t>Prodecimientos Almacenados</t>
+    <t>API_WF_OPERACION_INFO</t>
   </si>
   <si>
-    <t>API_WF_OPERACION_INFO</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Procedimientos Almacenados</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,6 +366,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
